--- a/Assets/Scripts/HH/Quest/QuestTable.xlsx
+++ b/Assets/Scripts/HH/Quest/QuestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade\Assets\Scripts\HH\Quest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\HaveToTrade\Assets\Scripts\HH\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA59F4D-ADDC-4350-81DD-3ECFC3919E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C7EE4-D93C-43C1-A12F-5743981BEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="4215" windowWidth="13890" windowHeight="11385" xr2:uid="{D7B09D39-F076-47B8-9C94-38323AFFEA98}"/>
+    <workbookView xWindow="8190" yWindow="3030" windowWidth="15675" windowHeight="12450" xr2:uid="{D7B09D39-F076-47B8-9C94-38323AFFEA98}"/>
   </bookViews>
   <sheets>
     <sheet name="quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,46 @@
   </si>
   <si>
     <t>Oats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65CF359-1C7B-43EC-B835-5BFB63C787A2}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,6 +761,151 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>170</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/HH/Quest/QuestTable.xlsx
+++ b/Assets/Scripts/HH/Quest/QuestTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\HaveToTrade\Assets\Scripts\HH\Quest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade2\Assets\Scripts\HH\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C7EE4-D93C-43C1-A12F-5743981BEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F190524-D362-474E-8533-10C3C19E4EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="3030" windowWidth="15675" windowHeight="12450" xr2:uid="{D7B09D39-F076-47B8-9C94-38323AFFEA98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7B09D39-F076-47B8-9C94-38323AFFEA98}"/>
   </bookViews>
   <sheets>
     <sheet name="quest" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Food</t>
   </si>
@@ -85,22 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Food buy 30kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food buy 50kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food buy 70kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food buy 90kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buyOrSell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,22 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food Delivery(GreStar)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreStar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>questType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,55 +85,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>questStuffName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Smokian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스모키안 마을에서 비가공식품을 15kg치 사라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드벤 마을에서 비가공식품을 30kg치 팔아라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스모키안 마을에서 비가공식품을 50kg치 팔아라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드벤 마을에서 비가공식품을 30kg치 사라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건을 구매하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건을 판매하자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65CF359-1C7B-43EC-B835-5BFB63C787A2}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,34 +519,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -618,28 +554,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -647,28 +583,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -676,28 +612,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -705,205 +641,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>110</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>130</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>150</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>170</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
